--- a/jpcore-r4/feature/swg2-vitalsign-bodymesurement/ValueSet-jp-observation-bodysite-vs.xlsx
+++ b/jpcore-r4/feature/swg2-vitalsign-bodymesurement/ValueSet-jp-observation-bodysite-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T14:04:43+00:00</t>
+    <t>2022-08-16T01:31:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
